--- a/src/main/resources/poi/sales_bill.xlsx
+++ b/src/main/resources/poi/sales_bill.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CA5084-4BB9-4BDE-B42E-66F055D42862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF308065-8BB8-4EF7-951E-2B1074BB239A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t.invoiceNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t.unitPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +158,10 @@
   </si>
   <si>
     <t>t.invoiceyTypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.billCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -662,10 +662,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -683,22 +683,22 @@
         <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>25</v>
